--- a/data/trans_dic/P78D$recibos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78D$recibos_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,97</t>
+          <t>4,29; 8,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,05</t>
+          <t>5,33; 8,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,05</t>
+          <t>5,38; 8,07</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,01</t>
+          <t>3,42; 9,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,45</t>
+          <t>8,04; 11,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,93</t>
+          <t>5,28; 9,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,48</t>
+          <t>4,58; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,18</t>
+          <t>2,17; 7,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,06</t>
+          <t>3,58; 7,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,63</t>
+          <t>7,78; 11,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,71</t>
+          <t>10,92; 14,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 12,68</t>
+          <t>9,95; 12,82</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,65</t>
+          <t>5,57; 8,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,88</t>
+          <t>7,17; 9,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,94</t>
+          <t>6,97; 9,01</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido, al menos, algún retraso en el pago de recibos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36821</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50881</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>87702</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26475; 50060</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37596; 62925</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>71254; 106758</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84251</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87324</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40047; 116523</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>74184; 105423</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>110478; 205924</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42388</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45124</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>87512</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31006; 57976</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19627; 66143</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56648; 113544</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86821</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>125716</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>212537</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69836; 105388</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>108062; 144483</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>187752; 241801</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>250281</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>309045</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>559326</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>187446; 287104</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>252333; 349526</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>479576; 620339</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>